--- a/PRODUTOS/Saudaveis/Saudaveis - Diet, light e zero.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Diet, light e zero.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Granola Mãe Terra 250g Zero Tradicional</t>
+          <t>Granola Jasmine 250g Zero Açucar Frutas Tropicais</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7285c13-7d62-471b-bf17-3692e9e7c5e9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55fc6e30-4b9d-4625-a2f3-ec79469bf18c.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896283000157</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gelatina Zero Acucar Lowcucar 10g Morango</t>
+          <t>Creme De Amendoim Dacolonia 200g Pacoca Zero</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/002c38ac-be48-432e-9d9f-efd7281fda77.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6018a23d-fc30-461b-bde1-0b77737ef1d4.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896181712480</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gelatina Zero Acucar Lowcucar 10g Abac</t>
+          <t>Granola Mãe Terra 800g Zero</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c78f672-994a-4fa9-b413-4d4784ccac96.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b848ce3b-342f-4be3-8e9b-34acf375c970.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891150087606</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gelatina Zero Acucar Lowcucar 10g Uva</t>
+          <t>Granola Tia Sônia 200g Zero X-pin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c836f0e-da62-4612-92a2-2f14b01c17e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/058d41e9-0c4a-4e8f-a9ea-01d3285f5755.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898115750070</t>
         </is>
       </c>
     </row>
@@ -569,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Biscoito Sou Sweet Zero Ac. Jasmine Frut Verm 75g</t>
+          <t>Pudim Zero Acucar Lowcucar 25g Baunilha</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00bc8627-918b-4b14-ad6e-61cfd8b368b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/129cc488-2b69-45b4-bc3c-6de554368969.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896292006003</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gelatina Zero Acucar Lowcucar 10g Frutas Vermelhas</t>
+          <t>Mousse Zero Acucar Lowcucar 25g Mor</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/707dca94-ef03-41ed-a6b8-49154305e826.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e62f1e6d-8f35-44e6-bd2a-729390128fea.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896292006003</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Granola Mãe Terra 800g Zero</t>
+          <t>Gelatina Zero Acucar Lowcucar 10g Abac</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b848ce3b-342f-4be3-8e9b-34acf375c970.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c78f672-994a-4fa9-b413-4d4784ccac96.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896292006461</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Biscoito Sou Sweet Ac. Jasmine Choco&amp;gotas 75g</t>
+          <t>Gelatina Zero Acucar Lowcucar 10g Framboesa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08839c6e-62b1-4f3f-bb4e-b95cfc8aa318.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c96e561-4650-4e4d-8236-ddb6b5cba939.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896292006416</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Granola Jasmine 250g Zero Açucar Frutas Tropicais</t>
+          <t>Gelatina Zero Acucar Lowcucar 10g Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55fc6e30-4b9d-4625-a2f3-ec79469bf18c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/707dca94-ef03-41ed-a6b8-49154305e826.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896292006461</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Biscoito Rech Zero Acucar Lowcucar 120g Choc</t>
+          <t>Gelatina Zero Acucar Lowcucar 10g Morango</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e084f33-80da-4d40-8af5-f1197bf30917.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/002c38ac-be48-432e-9d9f-efd7281fda77.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896292006461</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Zero Jasmine 120g Cappuccino/avela</t>
+          <t>Biscoito Rech Zero Acucar Lowcucar 120g Choc</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ae4483c-e827-4919-b89e-df20018190e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e084f33-80da-4d40-8af5-f1197bf30917.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896292000148</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pipoca Pronta Linea 50g Caramelo</t>
+          <t>Gelatina Zero Acucar Lowcucar 10g Uva</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06aefb04-7926-4be2-85e2-07191585e3eb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c836f0e-da62-4612-92a2-2f14b01c17e7.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896292006461</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pudim Zero Acucar Lowcucar 25g Baunilha</t>
+          <t>Biscoito Wafer Zero Lact Lowçucar 115g Mor</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/129cc488-2b69-45b4-bc3c-6de554368969.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc26560d-df91-4a62-8bd2-a6e96b9927f6.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896292002708</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Creme De Amendoim Dacolonia 200g Pacoca Zero</t>
+          <t>Biscoito Cookies Zero Jasmine 120g Cappuccino/avela</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6018a23d-fc30-461b-bde1-0b77737ef1d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ae4483c-e827-4919-b89e-df20018190e7.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896283001734</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Granola Tia Sônia 200g Zero X-pin</t>
+          <t>Pipoca Pronta Linea 50g Choco</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/058d41e9-0c4a-4e8f-a9ea-01d3285f5755.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2ce1157-1420-48a1-9c51-874599aa5bee.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896001250970</t>
         </is>
       </c>
     </row>
@@ -866,125 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mousse Zero Acucar Lowcucar 25g Mor</t>
+          <t>Pipoca Pronta Linea 50g Caramelo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e62f1e6d-8f35-44e6-bd2a-729390128fea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Diet, light e zero</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Zero Lact Lowçucar 115g Mor</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc26560d-df91-4a62-8bd2-a6e96b9927f6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Diet, light e zero</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Calda Sobremesa Mrs Taste 335g Chocolate</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de07e664-0e19-4b96-91a9-1ca1b5eea9b7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Diet, light e zero</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Calda Sobremesa Mrs Taste 335g Morango</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09af2f46-9189-483a-bbf3-9f8d3d4d4610.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Diet, light e zero</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Molho Mrs Taste Buffalo 320g</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c89bebbf-3c7e-45d5-83c1-06213003bc45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06aefb04-7926-4be2-85e2-07191585e3eb.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896001223790</t>
         </is>
       </c>
     </row>
